--- a/Cronograma.xlsx
+++ b/Cronograma.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="47">
   <si>
     <t>DOMINGO</t>
   </si>
@@ -159,13 +159,22 @@
   </si>
   <si>
     <t>TALLER (10%) INGLES</t>
+  </si>
+  <si>
+    <t>LEER Y PROF PROGRAMACION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LEER </t>
+  </si>
+  <si>
+    <t>OCIO Y DESCANSO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -182,14 +191,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="14"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -202,8 +226,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="20">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -453,86 +483,57 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -557,8 +558,41 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -843,232 +877,230 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:H1"/>
+      <selection activeCell="G4" sqref="G4:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="15"/>
-    <col min="2" max="2" width="20.5703125" style="15" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" style="15" customWidth="1"/>
-    <col min="4" max="4" width="22.140625" style="15" customWidth="1"/>
-    <col min="5" max="5" width="25" style="15" customWidth="1"/>
-    <col min="6" max="6" width="23.140625" style="15" customWidth="1"/>
-    <col min="7" max="7" width="23.28515625" style="15" customWidth="1"/>
-    <col min="8" max="8" width="23.140625" style="15" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" style="8"/>
+    <col min="2" max="2" width="20.5703125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" style="8" customWidth="1"/>
+    <col min="4" max="4" width="28.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="27.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.140625" style="8" customWidth="1"/>
     <col min="9" max="9" width="4.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4"/>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="1"/>
+      <c r="B1" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="3"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="13"/>
     </row>
     <row r="2" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5"/>
-      <c r="B2" s="17" t="s">
+      <c r="A2" s="2"/>
+      <c r="B2" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="G2" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="18" t="s">
+      <c r="H2" s="30" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="9" t="s">
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="H4" s="14" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9" t="s">
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="9"/>
-      <c r="H5" s="10"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="14"/>
     </row>
     <row r="6" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="21" t="s">
+      <c r="D6" s="31"/>
+      <c r="E6" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="9"/>
-      <c r="G6" s="21" t="s">
+      <c r="F6" s="16"/>
+      <c r="G6" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="H6" s="10"/>
+      <c r="H6" s="14"/>
     </row>
     <row r="7" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="7" t="s">
+      <c r="C7" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="H7" s="10"/>
+      <c r="H7" s="14"/>
     </row>
     <row r="8" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="7" t="s">
+      <c r="B8" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="16"/>
+      <c r="D8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="H8" s="10"/>
+      <c r="H8" s="14"/>
     </row>
     <row r="9" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="7" t="s">
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="7" t="s">
+      <c r="E9" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="G9" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="10"/>
+      <c r="G9" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="14"/>
     </row>
     <row r="10" spans="1:8" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="12" t="s">
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="11"/>
-      <c r="F10" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" s="11"/>
-      <c r="H10" s="14" t="s">
+      <c r="E10" s="17"/>
+      <c r="F10" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="17"/>
+      <c r="H10" s="7" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -1095,225 +1127,225 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.140625" style="15" customWidth="1"/>
-    <col min="2" max="2" width="21.85546875" style="15" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" style="15" customWidth="1"/>
-    <col min="4" max="4" width="28.85546875" style="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="24.42578125" style="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="34.7109375" style="15" customWidth="1"/>
+    <col min="1" max="1" width="11.140625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="21.85546875" style="8" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" style="8" customWidth="1"/>
+    <col min="4" max="4" width="28.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="24.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="34.7109375" style="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4"/>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="1"/>
+      <c r="B1" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="3"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="13"/>
     </row>
     <row r="2" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5"/>
-      <c r="B2" s="17" t="s">
+      <c r="A2" s="2"/>
+      <c r="B2" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="G2" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="18" t="s">
+      <c r="H2" s="30" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="9" t="s">
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="H4" s="23" t="s">
+      <c r="H4" s="35" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9" t="s">
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="9"/>
-      <c r="H5" s="8" t="s">
+      <c r="G5" s="16"/>
+      <c r="H5" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="31"/>
+      <c r="E6" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="16"/>
+      <c r="G6" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="7" t="s">
+      <c r="C7" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" s="18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="16"/>
+      <c r="D8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" s="9"/>
-      <c r="G6" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="H6" s="23" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="7" t="s">
+      <c r="E8" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="H7" s="24" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="7" t="s">
+      <c r="G8" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="H8" s="19"/>
+    </row>
+    <row r="9" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="20"/>
+    </row>
+    <row r="10" spans="1:8" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="H8" s="25"/>
-    </row>
-    <row r="9" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="26"/>
-    </row>
-    <row r="10" spans="1:8" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="11"/>
-      <c r="F10" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" s="11"/>
-      <c r="H10" s="14" t="s">
+      <c r="E10" s="17"/>
+      <c r="F10" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="17"/>
+      <c r="H10" s="7" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1342,220 +1374,226 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="15"/>
-    <col min="2" max="2" width="27.42578125" style="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.42578125" style="15" customWidth="1"/>
-    <col min="4" max="4" width="23.140625" style="15" customWidth="1"/>
-    <col min="5" max="5" width="25.140625" style="15" customWidth="1"/>
-    <col min="6" max="6" width="26.42578125" style="15" customWidth="1"/>
-    <col min="7" max="7" width="25.7109375" style="15" customWidth="1"/>
-    <col min="8" max="8" width="27.42578125" style="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" style="8"/>
+    <col min="2" max="2" width="27.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.42578125" style="8" customWidth="1"/>
+    <col min="4" max="4" width="23.140625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="25.140625" style="8" customWidth="1"/>
+    <col min="6" max="6" width="26.42578125" style="8" customWidth="1"/>
+    <col min="7" max="7" width="25.7109375" style="8" customWidth="1"/>
+    <col min="8" max="8" width="27.42578125" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4"/>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="1"/>
+      <c r="B1" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="3"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="13"/>
     </row>
     <row r="2" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5"/>
-      <c r="B2" s="17" t="s">
+      <c r="A2" s="2"/>
+      <c r="B2" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="G2" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="18" t="s">
+      <c r="H2" s="30" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="32"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="9" t="s">
+      <c r="B4" s="15"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="H4" s="24" t="s">
+      <c r="H4" s="18" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="28"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9" t="s">
+      <c r="B5" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="31"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="9"/>
-      <c r="H5" s="25"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="19"/>
     </row>
     <row r="6" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="21" t="s">
+      <c r="D6" s="31"/>
+      <c r="E6" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="9"/>
-      <c r="G6" s="21" t="s">
+      <c r="F6" s="16"/>
+      <c r="G6" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="H6" s="25"/>
+      <c r="H6" s="19"/>
     </row>
     <row r="7" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="7" t="s">
+      <c r="C7" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="H7" s="25"/>
+      <c r="H7" s="19"/>
     </row>
     <row r="8" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="7" t="s">
+      <c r="C8" s="16"/>
+      <c r="D8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="H8" s="25"/>
+      <c r="H8" s="19"/>
     </row>
     <row r="9" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="7" t="s">
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="7" t="s">
+      <c r="E9" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="G9" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="26"/>
+      <c r="G9" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="37" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="10" spans="1:8" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="12" t="s">
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="11"/>
-      <c r="F10" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" s="11"/>
-      <c r="H10" s="14" t="s">
+      <c r="E10" s="17"/>
+      <c r="F10" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="17"/>
+      <c r="H10" s="7" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1564,15 +1602,15 @@
     <mergeCell ref="E9:E10"/>
     <mergeCell ref="G9:G10"/>
     <mergeCell ref="B1:H1"/>
-    <mergeCell ref="C3:C5"/>
     <mergeCell ref="D4:D6"/>
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="F5:F6"/>
     <mergeCell ref="C7:C10"/>
     <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="H4:H9"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="H4:H8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1588,220 +1626,221 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="15"/>
-    <col min="2" max="2" width="24.85546875" style="15" customWidth="1"/>
-    <col min="3" max="3" width="20.42578125" style="15" customWidth="1"/>
-    <col min="4" max="4" width="28.85546875" style="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="27.140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.28515625" style="15" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" style="8"/>
+    <col min="2" max="2" width="27.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.42578125" style="8" customWidth="1"/>
+    <col min="4" max="4" width="28.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="27.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.28515625" style="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4"/>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="1"/>
+      <c r="B1" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="3"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="13"/>
     </row>
     <row r="2" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5"/>
-      <c r="B2" s="17" t="s">
+      <c r="A2" s="2"/>
+      <c r="B2" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="G2" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="18" t="s">
+      <c r="H2" s="30" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="9" t="s">
+      <c r="B4" s="22"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="H4" s="29" t="s">
+      <c r="H4" s="23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="15"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="16"/>
+      <c r="H5" s="24"/>
+    </row>
+    <row r="6" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" s="9"/>
-      <c r="H5" s="30"/>
-    </row>
-    <row r="6" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="7" t="s">
+      <c r="C6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="D6" s="31"/>
+      <c r="E6" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="16"/>
+      <c r="G6" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" s="24"/>
+    </row>
+    <row r="7" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" s="24"/>
+    </row>
+    <row r="8" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="16"/>
+      <c r="D8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" s="9"/>
-      <c r="G6" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="H6" s="30"/>
-    </row>
-    <row r="7" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="7" t="s">
+      <c r="E8" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="H7" s="30"/>
-    </row>
-    <row r="8" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" s="24"/>
+    </row>
+    <row r="9" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="24"/>
+    </row>
+    <row r="10" spans="1:8" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="H8" s="30"/>
-    </row>
-    <row r="9" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="30"/>
-    </row>
-    <row r="10" spans="1:8" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="11"/>
-      <c r="F10" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" s="11"/>
-      <c r="H10" s="31"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="17"/>
+      <c r="H10" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="12">
     <mergeCell ref="E9:E10"/>
     <mergeCell ref="G9:G10"/>
     <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B3:B5"/>
     <mergeCell ref="C3:C5"/>
     <mergeCell ref="D4:D6"/>
     <mergeCell ref="E4:E5"/>
@@ -1810,7 +1849,9 @@
     <mergeCell ref="C7:C10"/>
     <mergeCell ref="B8:B10"/>
     <mergeCell ref="H4:H10"/>
+    <mergeCell ref="B3:B4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>